--- a/medicine/Handicap/Institut_médical_de_traumatologie_et_de_réadaptation/Institut_médical_de_traumatologie_et_de_réadaptation.xlsx
+++ b/medicine/Handicap/Institut_médical_de_traumatologie_et_de_réadaptation/Institut_médical_de_traumatologie_et_de_réadaptation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Institut_m%C3%A9dical_de_traumatologie_et_de_r%C3%A9adaptation</t>
+          <t>Institut_médical_de_traumatologie_et_de_réadaptation</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Institut médical de traumatologie et de réadaptation (IMTR) est un hôpital situé à Loverval, Gerpinnes, inauguré en 1962. Il fait partie du groupe "Grand Hôpital de Charleroi".
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Institut_m%C3%A9dical_de_traumatologie_et_de_r%C3%A9adaptation</t>
+          <t>Institut_médical_de_traumatologie_et_de_réadaptation</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,13 +524,15 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le projet de construction de ce centre médical nait en 1947, de l'initiative de la société Solvay, afin de soigner les ouvriers des usines de la région de Charleroi. En 1955, les études en vue de la réalisation du projet débutent. L’hôpital est ouvert en 1962[1].
-Il se spécialise particulièrement dans le soin apporté aux grands brûlés, et devient le premier hôpital de ce type en Belgique dans les années 1970. Conformément à sa vocation initiale, il soignait alors les ouvriers de la sidérurgie blessés par brûlures[2].
-En 1980, de nouveaux travaux sont réalisés sur le site[3].
-En 2016, l'institut médical prend en charge plusieurs blessés des attentats du 22 mars à Bruxelles[4],[5].
-En 2017, l’hôpital crée la première "banque de peau" de Wallonie[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le projet de construction de ce centre médical nait en 1947, de l'initiative de la société Solvay, afin de soigner les ouvriers des usines de la région de Charleroi. En 1955, les études en vue de la réalisation du projet débutent. L’hôpital est ouvert en 1962.
+Il se spécialise particulièrement dans le soin apporté aux grands brûlés, et devient le premier hôpital de ce type en Belgique dans les années 1970. Conformément à sa vocation initiale, il soignait alors les ouvriers de la sidérurgie blessés par brûlures.
+En 1980, de nouveaux travaux sont réalisés sur le site.
+En 2016, l'institut médical prend en charge plusieurs blessés des attentats du 22 mars à Bruxelles,.
+En 2017, l’hôpital crée la première "banque de peau" de Wallonie.
 </t>
         </is>
       </c>
